--- a/EL SALVADOR/Variables Género y Pueblos Indígenas ESV/Personas Ocupadas y Desocupadas.xlsx
+++ b/EL SALVADOR/Variables Género y Pueblos Indígenas ESV/Personas Ocupadas y Desocupadas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\OneDrive\Escritorio\Variables Género y Pueblos Indígenas ESV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\EL SALVADOR\Variables Género y Pueblos Indígenas ESV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53C33237-03C2-4A31-84BF-4FC75E97F75B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA53AD5-4677-459C-BD31-E269EA0CD6F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excel (12)" sheetId="1" r:id="rId1"/>
@@ -817,13 +817,13 @@
     <t>POBLACIÓN</t>
   </si>
   <si>
-    <t>Población Edad de Trabajar</t>
+    <t>POBLACIÓN CON EDAD PARA TRABAJAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1427,62 +1427,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FFC5C5C5"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFC5C5C5"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -1522,6 +1466,62 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFC5C5C5"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFC5C5C5"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1536,13 +1536,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Personas_ocupadas_desocupadas_ESV" displayName="Personas_ocupadas_desocupadas_ESV" ref="A2:D2105" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
-  <autoFilter ref="A2:D2105"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Personas_ocupadas_desocupadas_ESV" displayName="Personas_ocupadas_desocupadas_ESV" ref="A2:D2105" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A2:D2105" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="SEXO" dataDxfId="5"/>
-    <tableColumn id="2" name="MUNICIPIO" dataDxfId="4"/>
-    <tableColumn id="3" name="Población Edad de Trabajar" dataDxfId="1"/>
-    <tableColumn id="4" name="POBLACIÓN" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SEXO" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MUNICIPIO" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="POBLACIÓN CON EDAD PARA TRABAJAR" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="POBLACIÓN" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1844,18 +1844,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D2105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
